--- a/[Data] WES_PASS/Patient-49-indels.xlsx
+++ b/[Data] WES_PASS/Patient-49-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="370">
   <si>
     <t>NG.8132_49B_lib74085_3782_7</t>
   </si>
@@ -43,727 +43,1087 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_8601191</t>
   </si>
   <si>
-    <t>RERE</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_43353688   </t>
   </si>
   <si>
     <t>chr1_12198203</t>
   </si>
   <si>
-    <t>TNFRSF8</t>
+    <t>MAGI3 intron_variant:MAGI3 intron_variant&amp;non_coding_transcript_variant:RP11-512F24.1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_113992776   </t>
   </si>
   <si>
     <t>chr1_16268443</t>
   </si>
   <si>
-    <t>ZBTB17</t>
+    <t xml:space="preserve">chr1_142801519   </t>
   </si>
   <si>
     <t>chr1_16890971</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>NOTCH2NL 5_prime_UTR_variant:RP11-458D21.5 5_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_145209366   </t>
   </si>
   <si>
     <t>chr1_28843271</t>
   </si>
   <si>
-    <t>RCC1</t>
+    <t>ARHGEF26 intron_variant:ARHGEF26 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_153842179   </t>
   </si>
   <si>
     <t>chr1_46497340</t>
   </si>
   <si>
-    <t>MAST2</t>
+    <t xml:space="preserve">chr4_132664207   </t>
   </si>
   <si>
     <t>chr1_49056730</t>
   </si>
   <si>
-    <t>AGBL4</t>
+    <t xml:space="preserve">chr4_190426420   </t>
   </si>
   <si>
     <t>chr1_62149067</t>
   </si>
   <si>
-    <t>TM2D1</t>
+    <t>DOK3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:DOK3 missense_variant:RP11-1334A24.6 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_176930372   </t>
   </si>
   <si>
     <t>chr1_98511733</t>
   </si>
   <si>
-    <t>MIR137HG</t>
+    <t>LAMB1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_107621305   </t>
   </si>
   <si>
     <t>chr1_143188442</t>
   </si>
   <si>
-    <t>RP11-782C8.2:RP11-782C8.1</t>
+    <t>TBC1D30 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_65230159   </t>
   </si>
   <si>
     <t>chr1_143188479</t>
   </si>
   <si>
+    <t xml:space="preserve">chr15_22472907   </t>
+  </si>
+  <si>
     <t>chr1_143188520</t>
   </si>
   <si>
+    <t xml:space="preserve">chr15_22472947   </t>
+  </si>
+  <si>
     <t>chr1_151001615</t>
   </si>
   <si>
-    <t>PRUNE</t>
+    <t>SF3A2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SF3A2 intron_variant:SF3A2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_2247127   </t>
   </si>
   <si>
     <t>chr1_167368791</t>
   </si>
   <si>
-    <t>POU2F1</t>
+    <t>ZNF826P intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_20501395   </t>
   </si>
   <si>
     <t>chr1_214454774</t>
   </si>
   <si>
-    <t>SMYD2</t>
+    <t>CHD6 intron_variant:CHD6 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_40102177   </t>
   </si>
   <si>
     <t>chr1_225541395</t>
   </si>
   <si>
-    <t>DNAH14</t>
+    <t>LTN1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_30303390   </t>
   </si>
   <si>
     <t>chr1_231299470</t>
   </si>
   <si>
-    <t>TRIM67</t>
+    <t>IGSF1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_130409655   </t>
   </si>
   <si>
     <t>chr2_36583500</t>
   </si>
   <si>
+    <t>APTX intron_variant&amp;NMD_transcript_variant:APTX intron_variant:APTX intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_32986071   </t>
+  </si>
+  <si>
     <t>chr2_37366965</t>
   </si>
   <si>
-    <t>EIF2AK2</t>
+    <t>DHX40 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_57685253   </t>
   </si>
   <si>
     <t>chr2_61315638</t>
   </si>
   <si>
-    <t>KIAA1841</t>
+    <t>AC009502.4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_220586367   </t>
   </si>
   <si>
     <t>chr2_116535069</t>
   </si>
   <si>
-    <t>DPP10</t>
+    <t xml:space="preserve">chr18_19648877   </t>
   </si>
   <si>
     <t>chr2_197066173</t>
   </si>
   <si>
-    <t>HECW2</t>
+    <t xml:space="preserve">chr9_92995183   </t>
   </si>
   <si>
     <t>chr2_220586367</t>
   </si>
   <si>
-    <t>AC009502.4</t>
+    <t>CCDC74A missense_variant:CCDC74A 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_132290441   </t>
   </si>
   <si>
     <t>chr2_225719571</t>
   </si>
   <si>
-    <t>DOCK10</t>
+    <t>RNF150 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_141983542   </t>
   </si>
   <si>
     <t>chr2_228139885</t>
   </si>
   <si>
-    <t>AC097662.2:COL4A3</t>
+    <t>RP11-262H14.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_66457773   </t>
   </si>
   <si>
     <t>chr2_242756780</t>
   </si>
   <si>
-    <t>NEU4</t>
+    <t>MEGF10 intron_variant&amp;non_coding_transcript_variant:MEGF10 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_126791415   </t>
   </si>
   <si>
     <t>chr3_9691542</t>
   </si>
   <si>
-    <t>MTMR14</t>
+    <t>BBS2 intron_variant:BBS2 intron_variant&amp;non_coding_transcript_variant:BBS2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_56531893   </t>
   </si>
   <si>
     <t>chr3_16636093</t>
   </si>
   <si>
-    <t>DAZL</t>
+    <t>FBXL7 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_15616330   </t>
   </si>
   <si>
     <t>chr3_42738493</t>
   </si>
   <si>
-    <t>HHATL:CCDC13</t>
+    <t xml:space="preserve">chr1_16890971   </t>
   </si>
   <si>
     <t>chr3_51422741</t>
   </si>
   <si>
+    <t>ZNF141 intron_variant&amp;non_coding_transcript_variant:ZNF141 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_337876   </t>
+  </si>
+  <si>
     <t>chr3_100059702</t>
   </si>
   <si>
-    <t>NIT2</t>
+    <t>HELZ intron_variant:HELZ intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_65146242   </t>
   </si>
   <si>
     <t>chr3_126390443</t>
   </si>
   <si>
+    <t>TRIM67 inframe_deletion:TRIM67 splice_region_variant&amp;intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_231299470   </t>
+  </si>
+  <si>
     <t>chr3_153842179</t>
   </si>
   <si>
-    <t>ARHGEF26</t>
+    <t>HLA-DQB2 missense_variant:HLA-DQB2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_32725567   </t>
   </si>
   <si>
     <t>chr3_159482271</t>
   </si>
   <si>
-    <t>IQCJ-SCHIP1</t>
+    <t xml:space="preserve">chr8_117866426   </t>
   </si>
   <si>
     <t>chr4_337876</t>
   </si>
   <si>
-    <t>ZNF141</t>
+    <t>ZBTB17 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ZBTB17 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_16268443   </t>
   </si>
   <si>
     <t>chr4_337882</t>
   </si>
   <si>
+    <t>SLC9A1 intron_variant:SLC9A1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_27428447   </t>
+  </si>
+  <si>
     <t>chr4_337896</t>
   </si>
   <si>
+    <t>COL16A1 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant:COL16A1 splice_region_variant&amp;intron_variant:COL16A1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_32131686   </t>
+  </si>
+  <si>
     <t>chr4_26097249</t>
   </si>
   <si>
+    <t>CYP4B1 intron_variant&amp;NMD_transcript_variant:CYP4B1 intron_variant:CYP4B1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_47265087   </t>
+  </si>
+  <si>
     <t>chr4_79792163</t>
   </si>
   <si>
-    <t>BMP2K</t>
+    <t xml:space="preserve">chr2_90212185   </t>
   </si>
   <si>
     <t>chr4_89199864</t>
   </si>
   <si>
-    <t>PPM1K</t>
+    <t xml:space="preserve">chr2_113835073   </t>
   </si>
   <si>
     <t>chr4_113567544</t>
   </si>
   <si>
-    <t>LARP7</t>
+    <t xml:space="preserve">chr2_158116105   </t>
   </si>
   <si>
     <t>chr4_141983542</t>
   </si>
   <si>
-    <t>RNF150</t>
+    <t>TNS1 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_218712660   </t>
   </si>
   <si>
     <t>chr4_190878395</t>
   </si>
   <si>
-    <t>FRG1</t>
+    <t>SEMA5B intron_variant:SEMA5B intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_122634498   </t>
   </si>
   <si>
     <t>chr5_1210743</t>
   </si>
   <si>
-    <t>SLC6A19</t>
+    <t>PGM2 intron_variant&amp;NMD_transcript_variant:PGM2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_37831567   </t>
   </si>
   <si>
     <t>chr5_15616330</t>
   </si>
   <si>
-    <t>FBXL7</t>
+    <t>CORIN intron_variant&amp;non_coding_transcript_variant:CORIN intron_variant:RP11-100N21.1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_47708605   </t>
   </si>
   <si>
     <t>chr5_88416255</t>
   </si>
   <si>
-    <t>MEF2C-AS1</t>
+    <t>SV2C intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_75490646   </t>
   </si>
   <si>
     <t>chr5_126791415</t>
   </si>
   <si>
-    <t>MEGF10</t>
+    <t>STK32A 5_prime_UTR_variant:STK32A non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_146619120   </t>
   </si>
   <si>
     <t>chr5_149624901</t>
   </si>
   <si>
-    <t>CAMK2A</t>
+    <t>RIMS1 intron_variant:RIMS1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_72858259   </t>
   </si>
   <si>
     <t>chr5_179994815</t>
   </si>
   <si>
-    <t>CNOT6</t>
+    <t>ZP3 intron_variant:ZP3 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_76058749   </t>
   </si>
   <si>
     <t>chr6_32498073</t>
   </si>
   <si>
+    <t>KCND2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:KCND2 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_120385898   </t>
+  </si>
+  <si>
     <t>chr6_32710363</t>
   </si>
   <si>
+    <t>OR2A1-AS1 intron_variant&amp;non_coding_transcript_variant:ARHGEF35 intron_variant:RP4-545C24.1 intron_variant&amp;non_coding_transcript_variant:OR2A7 stop_gained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_143956040   </t>
+  </si>
+  <si>
     <t>chr6_114292109</t>
   </si>
   <si>
-    <t>RP3-399L15.3:HDAC2</t>
+    <t>FKBP15 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_115944969   </t>
   </si>
   <si>
     <t>chr6_145021193</t>
   </si>
   <si>
-    <t>UTRN</t>
+    <t>GSN intron_variant:GSN intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_124094570   </t>
   </si>
   <si>
     <t>chr7_5023453</t>
   </si>
   <si>
-    <t>RNF216P1:RBAK-RBAKDN</t>
+    <t>EHMT1 intron_variant&amp;non_coding_transcript_variant:EHMT1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_140611021   </t>
   </si>
   <si>
     <t>chr7_7106634</t>
   </si>
   <si>
-    <t>MIR3683</t>
+    <t>CALML3 missense_variant:CALML3-AS1 intron_variant&amp;non_coding_transcript_variant:RP11-116G8.5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_5567445   </t>
   </si>
   <si>
     <t>chr7_20825145</t>
   </si>
   <si>
-    <t>SP8</t>
+    <t>GPRIN2 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_47000242   </t>
   </si>
   <si>
     <t>chr7_36660502</t>
   </si>
   <si>
-    <t>AOAH</t>
+    <t>EPS8L2 intron_variant&amp;non_coding_transcript_variant:AP006621.9 intron_variant&amp;non_coding_transcript_variant:EPS8L2 intron_variant&amp;NMD_transcript_variant:EPS8L2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_724941   </t>
   </si>
   <si>
     <t>chr7_44663909</t>
   </si>
   <si>
-    <t>OGDH</t>
+    <t xml:space="preserve">chr11_22257716   </t>
   </si>
   <si>
     <t>chr7_76796900</t>
   </si>
   <si>
-    <t>CCDC146:RP11-467H10.2</t>
+    <t>PIK3C2G intron_variant&amp;NMD_transcript_variant:PIK3C2G intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_18762669   </t>
   </si>
   <si>
     <t>chr7_99708068</t>
   </si>
   <si>
-    <t>TAF6</t>
+    <t>RXFP2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_32332216   </t>
   </si>
   <si>
     <t>chr7_107621305</t>
   </si>
   <si>
-    <t>LAMB1</t>
+    <t xml:space="preserve">chr14_107183952   </t>
   </si>
   <si>
     <t>chr7_127026340</t>
   </si>
   <si>
-    <t>ZNF800</t>
+    <t>ATP8B4 intron_variant&amp;NMD_transcript_variant:ATP8B4 intron_variant:ATP8B4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_50189794   </t>
   </si>
   <si>
     <t>chr8_51614179</t>
   </si>
   <si>
-    <t>SNTG1</t>
+    <t>ZNF469 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_88498626   </t>
   </si>
   <si>
     <t>chr8_74213272</t>
   </si>
   <si>
-    <t>RDH10:RP11-434I12.2</t>
+    <t>ALOXE3 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_8012556   </t>
   </si>
   <si>
     <t>chr8_101164032</t>
   </si>
   <si>
-    <t>POLR2K</t>
+    <t>RAB11FIP4 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_29857416   </t>
   </si>
   <si>
     <t>chr8_101721429</t>
   </si>
   <si>
-    <t>PABPC1</t>
+    <t xml:space="preserve">chr17_51512479   </t>
   </si>
   <si>
     <t>chr8_117866426</t>
   </si>
   <si>
+    <t>SMURF2 intron_variant&amp;non_coding_transcript_variant:SMURF2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SMURF2 intron_variant&amp;NMD_transcript_variant:SMURF2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_62559199   </t>
+  </si>
+  <si>
     <t>chr8_144459327</t>
   </si>
   <si>
-    <t>RHPN1</t>
+    <t xml:space="preserve">chr18_14632838   </t>
   </si>
   <si>
     <t>chr9_20414343</t>
   </si>
   <si>
-    <t>MLLT3</t>
+    <t>GREB1L stop_gained:GREB1L non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-296E23.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_18983864   </t>
   </si>
   <si>
     <t>chr9_32986071</t>
   </si>
   <si>
-    <t>APTX</t>
+    <t xml:space="preserve">chr18_67068498   </t>
   </si>
   <si>
     <t>chr9_35403605</t>
   </si>
   <si>
-    <t>UNC13B</t>
+    <t>C3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:C3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_6684366   </t>
   </si>
   <si>
     <t>chr9_86924468</t>
   </si>
   <si>
-    <t>SLC28A3</t>
+    <t>C22orf42 missense_variant:C22orf42 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_32550261   </t>
   </si>
   <si>
     <t>chr9_134165769</t>
   </si>
   <si>
-    <t>PPAPDC3</t>
+    <t xml:space="preserve">chr2_36512703   </t>
   </si>
   <si>
     <t>chr10_63852658</t>
   </si>
   <si>
-    <t>ARID5B</t>
+    <t>ARL13A intron_variant&amp;NMD_transcript_variant:ARL13A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_100229355   </t>
   </si>
   <si>
     <t>chr10_70139328</t>
   </si>
   <si>
-    <t>RUFY2</t>
+    <t>BMP2K 3_prime_UTR_variant&amp;NMD_transcript_variant:BMP2K inframe_deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_79792163   </t>
   </si>
   <si>
     <t>chr10_105883957</t>
   </si>
   <si>
-    <t>SFR1</t>
+    <t xml:space="preserve">chr6_29902063   </t>
   </si>
   <si>
     <t>chr10_127697232</t>
   </si>
   <si>
-    <t>FANK1</t>
+    <t xml:space="preserve">chr6_29902064   </t>
   </si>
   <si>
     <t>chr11_64083295</t>
   </si>
   <si>
-    <t>ESRRA</t>
+    <t>RDH10 intron_variant:RP11-434I12.2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_74213272   </t>
   </si>
   <si>
     <t>chr11_94906604</t>
   </si>
   <si>
-    <t>RP11-712B9.2:SESN3</t>
+    <t xml:space="preserve">chr19_2247109   </t>
   </si>
   <si>
     <t>chr11_102623120</t>
   </si>
   <si>
-    <t>AP000619.5:WTAPP1</t>
+    <t>FAM120C intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_54117672   </t>
   </si>
   <si>
     <t>chr11_111635344</t>
   </si>
   <si>
-    <t>PPP2R1B</t>
+    <t xml:space="preserve">chr3_51422741   </t>
   </si>
   <si>
     <t>chr12_4639390</t>
   </si>
   <si>
-    <t>C12orf4</t>
+    <t>AGBL4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_49056730   </t>
   </si>
   <si>
     <t>chr12_9454966</t>
   </si>
   <si>
-    <t>RP11-22B23.1</t>
+    <t>ANKRD36 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_97792980   </t>
   </si>
   <si>
     <t>chr12_27540087</t>
   </si>
   <si>
-    <t>ARNTL2</t>
+    <t>PARP4 intron_variant:TPTE2P6 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_25020983   </t>
   </si>
   <si>
     <t>chr12_53343318</t>
   </si>
   <si>
-    <t>KRT8:KRT18</t>
+    <t>OR5H2 missense_variant:RP11-325B23.2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_98002196   </t>
   </si>
   <si>
     <t>chr12_57223838</t>
   </si>
   <si>
+    <t xml:space="preserve">chr6_32487023   </t>
+  </si>
+  <si>
     <t>chr12_58221480</t>
   </si>
   <si>
-    <t>CTDSP2</t>
+    <t>MOV10L1 missense_variant&amp;splice_region_variant:MOV10L1 splice_region_variant&amp;5_prime_UTR_variant:MOV10L1 missense_variant&amp;splice_region_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_50555780   </t>
   </si>
   <si>
     <t>chr12_58221482</t>
   </si>
   <si>
+    <t xml:space="preserve">chr3_126390443   </t>
+  </si>
+  <si>
     <t>chr12_101702202</t>
   </si>
   <si>
+    <t>CLIC6 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_36080444   </t>
+  </si>
+  <si>
     <t>chr12_109831344</t>
   </si>
   <si>
-    <t>MYO1H</t>
+    <t>SLC6A19 intron_variant:SLC6A19 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_1210743   </t>
   </si>
   <si>
     <t>chr12_114385062</t>
   </si>
   <si>
-    <t>RBM19</t>
+    <t>LINC00221 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_106940172   </t>
   </si>
   <si>
     <t>chr12_131488937</t>
   </si>
   <si>
-    <t>GPR133</t>
+    <t>GPR133 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_131488937   </t>
   </si>
   <si>
     <t>chr13_38157995</t>
   </si>
   <si>
-    <t>POSTN</t>
+    <t>POM121C missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_75051419   </t>
   </si>
   <si>
     <t>chr13_77692813</t>
   </si>
   <si>
-    <t>MYCBP2</t>
+    <t xml:space="preserve">chr7_129929274   </t>
   </si>
   <si>
     <t>chr14_23739642</t>
   </si>
   <si>
-    <t>C14orf164</t>
+    <t>RP11-22B23.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_9454966   </t>
   </si>
   <si>
     <t>chr14_36244341</t>
   </si>
   <si>
-    <t>RALGAPA1</t>
+    <t>POLR2K non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:POLR2K intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_101164032   </t>
   </si>
   <si>
     <t>chr14_68244575</t>
   </si>
   <si>
-    <t>ZFYVE26</t>
+    <t>FANK1 intron_variant:FANK1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_127697232   </t>
   </si>
   <si>
     <t>chr14_103571520</t>
   </si>
   <si>
-    <t>EXOC3L4</t>
+    <t>AP000619.5 intron_variant&amp;non_coding_transcript_variant:WTAPP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_102623120   </t>
   </si>
   <si>
     <t>chr15_22472907</t>
   </si>
   <si>
+    <t xml:space="preserve">chr14_19475298   </t>
+  </si>
+  <si>
     <t>chr15_43262924</t>
   </si>
   <si>
-    <t>UBR1</t>
+    <t>KSR2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_117907726   </t>
   </si>
   <si>
     <t>chr16_3161015</t>
   </si>
   <si>
-    <t>ZNF205-AS1</t>
+    <t xml:space="preserve">chr1_22927649   </t>
   </si>
   <si>
     <t>chr16_28506894</t>
   </si>
   <si>
-    <t>APOBR:CLN3</t>
+    <t>IQCJ-SCHIP1 inframe_deletion:IQCJ-SCHIP1 intron_variant:IQCJ-SCHIP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_159482271   </t>
   </si>
   <si>
     <t>chr16_56531893</t>
   </si>
   <si>
-    <t>BBS2</t>
+    <t>FHDC1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_153874827   </t>
   </si>
   <si>
     <t>chr16_89784399</t>
   </si>
   <si>
-    <t>VPS9D1-AS1:VPS9D1</t>
+    <t xml:space="preserve">chr20_10537128   </t>
   </si>
   <si>
     <t>chr17_29676104</t>
   </si>
   <si>
-    <t>NF1</t>
-  </si>
-  <si>
-    <t>NF1 Indel</t>
+    <t>SUPV3L1 3_prime_UTR_variant:SUPV3L1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_70968813   </t>
   </si>
   <si>
     <t>chr17_57685253</t>
   </si>
   <si>
-    <t>DHX40</t>
+    <t>RCC1 5_prime_UTR_variant:RCC1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_28843271   </t>
   </si>
   <si>
     <t>chr17_65146242</t>
   </si>
   <si>
-    <t>HELZ</t>
+    <t>PABPC1 missense_variant:PABPC1 3_prime_UTR_variant&amp;NMD_transcript_variant:PABPC1 intron_variant&amp;non_coding_transcript_variant:PABPC1 missense_variant&amp;NMD_transcript_variant:PABPC1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_101721429   </t>
+  </si>
+  <si>
+    <t>PABPC1:PABPC1:PABPC1:PABPC1:PABPC1</t>
+  </si>
+  <si>
+    <t>missense_variant:3_prime_UTR_variant&amp;NMD_transcript_variant:intron_variant&amp;non_coding_transcript_variant:missense_variant&amp;NMD_transcript_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr17_77044218</t>
   </si>
   <si>
-    <t>C1QTNF1</t>
+    <t>SLC28A3 intron_variant:SLC28A3 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_86924468   </t>
   </si>
   <si>
     <t>chr17_77099442</t>
   </si>
   <si>
-    <t>RBFOX3</t>
+    <t xml:space="preserve">chr9_127217298   </t>
   </si>
   <si>
     <t>chr18_12658300</t>
   </si>
   <si>
-    <t>AP005482.1</t>
+    <t>FAM118B intron_variant:FAM118B intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_126110506   </t>
   </si>
   <si>
     <t>chr18_19648877</t>
   </si>
   <si>
+    <t>KRT37 intron_variant:AC003958.2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_39580172   </t>
+  </si>
+  <si>
     <t>chr18_32402593</t>
   </si>
   <si>
-    <t>DTNA</t>
+    <t>RERE intron_variant:RERE intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_8601191   </t>
   </si>
   <si>
     <t>chr19_1236046</t>
   </si>
   <si>
-    <t>C19orf26</t>
+    <t>RP11-782C8.2 intron_variant&amp;non_coding_transcript_variant:RP11-782C8.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_143188442   </t>
   </si>
   <si>
     <t>chr19_2247082</t>
   </si>
   <si>
-    <t>SF3A2</t>
+    <t xml:space="preserve">chr1_143188443   </t>
   </si>
   <si>
     <t>chr19_2247127</t>
   </si>
   <si>
+    <t>RP11-782C8.2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-782C8.2 intron_variant&amp;non_coding_transcript_variant:RP11-782C8.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_143188520   </t>
+  </si>
+  <si>
     <t>chr19_4539822</t>
   </si>
   <si>
-    <t>LRG1:CTB-50L17.14</t>
+    <t xml:space="preserve">chr6_1053960   </t>
   </si>
   <si>
     <t>chr19_5463403</t>
   </si>
   <si>
+    <t xml:space="preserve">chr8_65676369   </t>
+  </si>
+  <si>
     <t>chr19_6531148</t>
   </si>
   <si>
+    <t xml:space="preserve">chr9_31254319   </t>
+  </si>
+  <si>
     <t>chr19_14153190</t>
   </si>
   <si>
-    <t>IL27RA</t>
+    <t xml:space="preserve">chr9_68429050   </t>
   </si>
   <si>
     <t>chr19_41938473</t>
   </si>
   <si>
-    <t>ATP5SL</t>
+    <t>UTRN intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_145021193   </t>
   </si>
   <si>
     <t>chr19_54297578</t>
   </si>
   <si>
-    <t>NLRP12</t>
+    <t>SNTG1 intron_variant:SNTG1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_51614179   </t>
   </si>
   <si>
     <t>chr19_55281458</t>
   </si>
   <si>
-    <t>KIR2DL4:KIR3DL1:KIR2DL3:CTB-61M7.1:KIR2DL1</t>
+    <t>RP11-712B9.2 intron_variant&amp;non_coding_transcript_variant:SESN3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_94906604   </t>
   </si>
   <si>
     <t>chr20_10537128</t>
   </si>
   <si>
+    <t>R3HDM2 intron_variant&amp;non_coding_transcript_variant:R3HDM2 intron_variant:RP11-123K3.4 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_57686573   </t>
+  </si>
+  <si>
     <t>chr21_32114314</t>
   </si>
   <si>
+    <t>APOBR inframe_deletion:CLN3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_28506894   </t>
+  </si>
+  <si>
     <t>chr21_36080444</t>
   </si>
   <si>
-    <t>CLIC6</t>
+    <t>STX1B non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:STX1B missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_31021692   </t>
   </si>
   <si>
     <t>chr21_36206315</t>
   </si>
   <si>
-    <t>RUNX1</t>
+    <t>NF1 intron_variant:NF1 intron_variant&amp;NMD_transcript_variant:NF1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>chr17_29676104   NF1 Indel intron_variant:intron_variant&amp;NMD_transcript_variant:intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>NF1:NF1:NF1</t>
+  </si>
+  <si>
+    <t>intron_variant:intron_variant&amp;NMD_transcript_variant:intron_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chrMT_8618</t>
   </si>
   <si>
+    <t xml:space="preserve">chr9_68431028   </t>
+  </si>
+  <si>
     <t>chrX_15593697</t>
   </si>
   <si>
-    <t>ACE2</t>
+    <t xml:space="preserve">chr9_68431037   </t>
   </si>
   <si>
     <t>chrX_54117672</t>
   </si>
   <si>
-    <t>FAM120C</t>
+    <t xml:space="preserve">chr9_69002423   </t>
   </si>
   <si>
     <t>chrX_75393056</t>
   </si>
   <si>
-    <t>PBDC1</t>
+    <t>CTDSP2 intron_variant&amp;NMD_transcript_variant:CTDSP2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_58221482   </t>
   </si>
   <si>
     <t>chrX_100229355</t>
   </si>
   <si>
-    <t>ARL13A</t>
+    <t>MYO1H intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_109831344   </t>
   </si>
 </sst>
 </file>
@@ -1095,13 +1455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1129,10 +1489,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1156,12 +1522,15 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1185,12 +1554,15 @@
         <v>0.235294117647059</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1214,12 +1586,15 @@
         <v>0.258064516129032</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1243,12 +1618,15 @@
         <v>0.294117647058824</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1272,12 +1650,15 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1301,12 +1682,15 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1330,12 +1714,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1359,12 +1746,15 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1388,12 +1778,15 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1417,12 +1810,15 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1446,12 +1842,15 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1475,12 +1874,15 @@
         <v>0.025</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1504,12 +1906,15 @@
         <v>0.571428571428571</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1533,12 +1938,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1562,12 +1970,15 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1591,12 +2002,15 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1620,12 +2034,15 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1649,12 +2066,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1678,12 +2098,15 @@
         <v>0.409090909090909</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1707,12 +2130,15 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1736,12 +2162,15 @@
         <v>0.117647058823529</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1765,12 +2194,15 @@
         <v>0.0967741935483871</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1794,12 +2226,15 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1823,12 +2258,15 @@
         <v>0.0425531914893617</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1852,12 +2290,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1881,12 +2322,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1910,12 +2354,15 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1939,12 +2386,15 @@
         <v>0.2</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1968,12 +2418,15 @@
         <v>0.543478260869565</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1997,12 +2450,15 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2026,12 +2482,15 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2055,12 +2514,15 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2084,12 +2546,15 @@
         <v>0.4</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2113,12 +2578,15 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2142,12 +2610,15 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2171,12 +2642,15 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2200,12 +2674,15 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2229,12 +2706,15 @@
         <v>0.0232558139534884</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2258,12 +2738,15 @@
         <v>0.0689655172413793</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2287,12 +2770,15 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2316,12 +2802,15 @@
         <v>0.361111111111111</v>
       </c>
       <c r="I42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2345,12 +2834,15 @@
         <v>0.0188679245283019</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2374,12 +2866,15 @@
         <v>0.117647058823529</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2403,12 +2898,15 @@
         <v>0.214285714285714</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2432,12 +2930,15 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2461,12 +2962,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2490,12 +2994,15 @@
         <v>0.125</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2519,12 +3026,15 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2548,12 +3058,15 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2577,12 +3090,15 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2606,12 +3122,15 @@
         <v>0.107142857142857</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2635,12 +3154,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2664,12 +3186,15 @@
         <v>0.0246913580246914</v>
       </c>
       <c r="I54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2693,12 +3218,15 @@
         <v>0.0192307692307692</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2722,12 +3250,15 @@
         <v>0.335443037974684</v>
       </c>
       <c r="I56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2751,12 +3282,15 @@
         <v>0.015625</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2780,12 +3314,15 @@
         <v>0.0188679245283019</v>
       </c>
       <c r="I58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>167</v>
+      </c>
+      <c r="J58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2809,12 +3346,15 @@
         <v>0.04</v>
       </c>
       <c r="I59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2838,12 +3378,15 @@
         <v>0.0327868852459016</v>
       </c>
       <c r="I60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2867,12 +3410,15 @@
         <v>0.466666666666667</v>
       </c>
       <c r="I61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2896,12 +3442,15 @@
         <v>0.125</v>
       </c>
       <c r="I62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2925,12 +3474,15 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>180</v>
+      </c>
+      <c r="J63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2954,12 +3506,15 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2983,12 +3538,15 @@
         <v>0.2</v>
       </c>
       <c r="I65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3012,12 +3570,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3041,12 +3602,15 @@
         <v>0.0175438596491228</v>
       </c>
       <c r="I67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3070,12 +3634,15 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3099,12 +3666,15 @@
         <v>0.634146341463415</v>
       </c>
       <c r="I69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3128,12 +3698,15 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3157,12 +3730,15 @@
         <v>0.0625</v>
       </c>
       <c r="I71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3186,12 +3762,15 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3215,12 +3794,15 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>207</v>
+      </c>
+      <c r="J73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3244,12 +3826,15 @@
         <v>0.123809523809524</v>
       </c>
       <c r="I74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3273,12 +3858,15 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3302,12 +3890,15 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>215</v>
+      </c>
+      <c r="J76" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3331,12 +3922,15 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3360,12 +3954,15 @@
         <v>0.105263157894737</v>
       </c>
       <c r="I78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3389,12 +3986,15 @@
         <v>0.2</v>
       </c>
       <c r="I79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>222</v>
+      </c>
+      <c r="J79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3418,12 +4018,15 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3447,12 +4050,15 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>227</v>
+      </c>
+      <c r="J81" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3476,12 +4082,15 @@
         <v>0.2</v>
       </c>
       <c r="I82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3505,12 +4114,15 @@
         <v>0.1</v>
       </c>
       <c r="I83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>232</v>
+      </c>
+      <c r="J83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3534,12 +4146,15 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>235</v>
+      </c>
+      <c r="J84" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3563,12 +4178,15 @@
         <v>0.0384615384615385</v>
       </c>
       <c r="I85" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>238</v>
+      </c>
+      <c r="J85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3592,12 +4210,15 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="I86" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J86" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3621,12 +4242,15 @@
         <v>0.0428571428571429</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3650,12 +4274,15 @@
         <v>0.00408163265306122</v>
       </c>
       <c r="I88" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>246</v>
+      </c>
+      <c r="J88" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3679,12 +4306,15 @@
         <v>0.00286944045911047</v>
       </c>
       <c r="I89" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3708,12 +4338,15 @@
         <v>0.103448275862069</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>251</v>
+      </c>
+      <c r="J90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3737,12 +4370,15 @@
         <v>0.0447761194029851</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>254</v>
+      </c>
+      <c r="J91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3766,12 +4402,15 @@
         <v>0.0238095238095238</v>
       </c>
       <c r="I92" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>257</v>
+      </c>
+      <c r="J92" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3795,12 +4434,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3824,12 +4466,15 @@
         <v>0.470588235294118</v>
       </c>
       <c r="I94" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>263</v>
+      </c>
+      <c r="J94" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3853,12 +4498,15 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J95" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3882,12 +4530,15 @@
         <v>0.153846153846154</v>
       </c>
       <c r="I96" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>268</v>
+      </c>
+      <c r="J96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3911,12 +4562,15 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>271</v>
+      </c>
+      <c r="J97" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3940,12 +4594,15 @@
         <v>0.05</v>
       </c>
       <c r="I98" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>274</v>
+      </c>
+      <c r="J98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3969,12 +4626,15 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>277</v>
+      </c>
+      <c r="J99" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3998,12 +4658,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J100" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4027,12 +4690,15 @@
         <v>0.136363636363636</v>
       </c>
       <c r="I101" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>282</v>
+      </c>
+      <c r="J101" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4056,12 +4722,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4085,12 +4754,15 @@
         <v>0.0612244897959184</v>
       </c>
       <c r="I103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>287</v>
+      </c>
+      <c r="J103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4114,12 +4786,15 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>290</v>
+      </c>
+      <c r="J104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4143,12 +4818,15 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J105" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4172,15 +4850,15 @@
         <v>0.0740740740740741</v>
       </c>
       <c r="I106" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="J106" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4204,12 +4882,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="I107" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="J107" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4233,12 +4914,21 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I108" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>301</v>
+      </c>
+      <c r="J108" t="s">
+        <v>302</v>
+      </c>
+      <c r="K108" t="s">
+        <v>303</v>
+      </c>
+      <c r="L108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4262,12 +4952,15 @@
         <v>0.272727272727273</v>
       </c>
       <c r="I109" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>306</v>
+      </c>
+      <c r="J109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4291,12 +4984,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I110" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J110" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4320,12 +5016,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>311</v>
+      </c>
+      <c r="J111" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4349,12 +5048,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>314</v>
+      </c>
+      <c r="J112" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4378,12 +5080,15 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>317</v>
+      </c>
+      <c r="J113" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4407,12 +5112,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I114" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>320</v>
+      </c>
+      <c r="J114" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4436,12 +5144,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I115" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>320</v>
+      </c>
+      <c r="J115" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4465,12 +5176,15 @@
         <v>0.1</v>
       </c>
       <c r="I116" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>325</v>
+      </c>
+      <c r="J116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4494,12 +5208,15 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J117" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4523,12 +5240,15 @@
         <v>0.0476190476190476</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J118" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4552,12 +5272,15 @@
         <v>0.0175438596491228</v>
       </c>
       <c r="I119" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J119" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4581,12 +5304,15 @@
         <v>0.193548387096774</v>
       </c>
       <c r="I120" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J120" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4610,12 +5336,15 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>336</v>
+      </c>
+      <c r="J121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4639,12 +5368,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="I122" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>339</v>
+      </c>
+      <c r="J122" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4668,12 +5400,15 @@
         <v>0.0444444444444444</v>
       </c>
       <c r="I123" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>342</v>
+      </c>
+      <c r="J123" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4697,12 +5432,15 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>345</v>
+      </c>
+      <c r="J124" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4726,12 +5464,15 @@
         <v>0.0327868852459016</v>
       </c>
       <c r="I125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>348</v>
+      </c>
+      <c r="J125" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4755,12 +5496,15 @@
         <v>0.0652173913043478</v>
       </c>
       <c r="I126" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>351</v>
+      </c>
+      <c r="J126" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4784,12 +5528,21 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>354</v>
+      </c>
+      <c r="J127" t="s">
+        <v>355</v>
+      </c>
+      <c r="K127" t="s">
+        <v>356</v>
+      </c>
+      <c r="L127" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4813,12 +5566,15 @@
         <v>0.216867469879518</v>
       </c>
       <c r="I128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J128" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4842,12 +5598,15 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J129" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4871,12 +5630,15 @@
         <v>0.0625</v>
       </c>
       <c r="I130" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J130" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4900,12 +5662,15 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>365</v>
+      </c>
+      <c r="J131" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4929,7 +5694,10 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>249</v>
+        <v>368</v>
+      </c>
+      <c r="J132" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
